--- a/r5-AGES-MedicinalProduct-review/StructureDefinition-MyPatient.xlsx
+++ b/r5-AGES-MedicinalProduct-review/StructureDefinition-MyPatient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-17T10:36:09+00:00</t>
+    <t>2024-05-17T12:22:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
